--- a/tests/integration/data/Renderer011-DumpCols/expected.xlsx
+++ b/tests/integration/data/Renderer011-DumpCols/expected.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10409"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFDE07B2-E33C-5042-8C91-B81768807F88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="24580" windowHeight="14620"/>
+    <workbookView xWindow="4220" yWindow="500" windowWidth="24580" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Sheet1" state="visible" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
@@ -55,30 +56,30 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <b/>
+      <sz val="48"/>
       <color theme="3" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="48"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="4">
@@ -96,7 +97,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.7999816888943144"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,25 +474,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.35" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="76.36328125" style="1" customWidth="1"/>
-    <col min="3" max="9" width="23.1796875" customWidth="1"/>
+    <col min="2" max="2" width="76.33203125" style="1" customWidth="1"/>
+    <col min="3" max="9" width="23.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="115" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" ht="115" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="25.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
@@ -517,7 +518,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3" s="4"/>
       <c r="C3" s="4">
         <v>128</v>
@@ -541,7 +542,7 @@
         <v>8182</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
@@ -567,7 +568,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B5" s="6"/>
       <c r="C5" s="6">
         <v>2</v>
@@ -591,7 +592,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B6" s="7"/>
       <c r="C6" s="7">
         <v>28</v>
@@ -615,7 +616,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B7" s="8" t="s">
         <v>10</v>
       </c>
@@ -641,7 +642,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B8" s="9"/>
       <c r="C8" s="9">
         <v>1</v>
@@ -665,7 +666,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B9" s="4"/>
       <c r="C9" s="4">
         <v>1128</v>
@@ -689,7 +690,7 @@
         <v>18182</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B10" s="5" t="s">
         <v>11</v>
       </c>
@@ -715,7 +716,7 @@
         <v>11024</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B11" s="6"/>
       <c r="C11" s="6">
         <v>12</v>
@@ -723,9 +724,7 @@
       <c r="D11" s="6">
         <v>14</v>
       </c>
-      <c r="E11" s="6">
-        <v>18</v>
-      </c>
+      <c r="E11" s="6"/>
       <c r="F11" s="6">
         <v>116</v>
       </c>
@@ -739,11 +738,8 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="1"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="0" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="0"/>
 </worksheet>
 </file>